--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rd39708d6776e4ee6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R427a98d1abbb4e32"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0a22dd6fc86d436a"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R03622e8a96ad4e1d"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R427a98d1abbb4e32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R48d9b26d4fea4660"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R03622e8a96ad4e1d"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdf071c27152c4705"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R48d9b26d4fea4660"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc7b99678a5e648eb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdf071c27152c4705"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R34c3e3b1fdec46dc"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc7b99678a5e648eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R1e61b4b294fc4d3a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R34c3e3b1fdec46dc"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8f26bf4ddd14aed"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R1e61b4b294fc4d3a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R0b86d491ed4246b0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8f26bf4ddd14aed"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rccd26afd1a434063"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R0b86d491ed4246b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rb9ad2328a14d4a99"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rccd26afd1a434063"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re07dcb5d96d3438f"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rb9ad2328a14d4a99"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R1d56e92d773e4c79"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re07dcb5d96d3438f"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R22ee5fcb048a43f0"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R1d56e92d773e4c79"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rd428240dceb240cc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R22ee5fcb048a43f0"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R11fb3670287848c4"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rd428240dceb240cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rf9b545bc927e420f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R11fb3670287848c4"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4eb4771cf4554f14"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rf9b545bc927e420f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R2e97a6717ae345d4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4eb4771cf4554f14"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raba26b7ff70b4522"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R2e97a6717ae345d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc4278d3efe844f75"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raba26b7ff70b4522"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R551db21f016442f7"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc4278d3efe844f75"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R238dee41582f4553"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R551db21f016442f7"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R88347771aa5c4c65"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/049_ExcelTables.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R238dee41582f4553"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R497f530bd31a4c3c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -315,7 +315,7 @@
     <x:mergeCell ref="A1:E1"/>
   </x:mergeCells>
   <x:tableParts count="1">
-    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R88347771aa5c4c65"/>
+    <x:tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3b807ba50254448a"/>
   </x:tableParts>
 </x:worksheet>
 </file>